--- a/クリックポスト発送情報/20200619235506/英子日本发货表格6.19.xlsx
+++ b/クリックポスト発送情報/20200619235506/英子日本发货表格6.19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -286,6 +286,38 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255624</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255613</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255602</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255591</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255580</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255576</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255565</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485255554</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -420,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +548,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1422,8 +1460,8 @@
   <dimension ref="A1:FY258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1801,6 +1839,9 @@
       <c r="I2" s="27" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="33" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="31"/>
@@ -1818,6 +1859,9 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
+      <c r="K3" s="33" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -1842,6 +1886,9 @@
       <c r="I4" s="17" t="s">
         <v>24</v>
       </c>
+      <c r="K4" s="33" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -1866,6 +1913,9 @@
       <c r="I5" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="K5" s="33" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -1890,6 +1940,9 @@
       <c r="I6" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="K6" s="33" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="15" t="s">
@@ -1914,6 +1967,7 @@
       <c r="I7" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -1938,6 +1992,7 @@
       <c r="I8" s="17" t="s">
         <v>48</v>
       </c>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -1962,6 +2017,7 @@
       <c r="I9" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="15" t="s">
@@ -1986,6 +2042,7 @@
       <c r="I10" s="17" t="s">
         <v>59</v>
       </c>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2010,6 +2067,7 @@
       <c r="I11" s="19" t="s">
         <v>64</v>
       </c>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="21" t="s">
@@ -2034,6 +2092,9 @@
       <c r="I12" s="19" t="s">
         <v>70</v>
       </c>
+      <c r="K12" s="33" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="29" t="s">
@@ -2057,6 +2118,9 @@
       </c>
       <c r="I13" s="29" t="s">
         <v>76</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
@@ -2072,6 +2136,9 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
+      <c r="K14" s="33" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="16" spans="1:181" ht="121.95" customHeight="1"/>

--- a/クリックポスト発送情報/20200619235506/英子日本发货表格6.19.xlsx
+++ b/クリックポスト発送情報/20200619235506/英子日本发货表格6.19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>序号</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t>628485255554</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>10011486</t>
+  </si>
+  <si>
+    <t>深蓝 206款
+サイズ：[29]
+発送について：翌日発送可能</t>
+  </si>
+  <si>
+    <t>2480013</t>
+  </si>
+  <si>
+    <t>神奈川県鎌倉市材木座2-8-13</t>
+  </si>
+  <si>
+    <t>服部 雅子</t>
+  </si>
+  <si>
+    <t>0467252923</t>
+  </si>
+  <si>
+    <t>628484318814</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -328,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -402,6 +426,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -452,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +571,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,11 +592,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1113,6 +1159,48 @@
         <a:xfrm>
           <a:off x="1358265" y="19392265"/>
           <a:ext cx="781685" cy="1071245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1300480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1283335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1202055" y="3893185"/>
+          <a:ext cx="1005205" cy="1017270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1457,11 +1545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FY258"/>
+  <dimension ref="A1:FY259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1814,7 +1902,7 @@
       <c r="FY1" s="5"/>
     </row>
     <row r="2" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12"/>
@@ -1827,24 +1915,24 @@
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="33">
         <v>2510861</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
@@ -1855,11 +1943,11 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="K3" s="33" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="K3" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1886,7 +1974,7 @@
       <c r="I4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1913,7 +2001,7 @@
       <c r="I5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="28" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1940,7 +2028,7 @@
       <c r="I6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="28" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1967,7 +2055,7 @@
       <c r="I7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -1992,7 +2080,7 @@
       <c r="I8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -2017,7 +2105,7 @@
       <c r="I9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="15" t="s">
@@ -2042,7 +2130,7 @@
       <c r="I10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -2067,7 +2155,7 @@
       <c r="I11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="21" t="s">
@@ -2092,12 +2180,12 @@
       <c r="I12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="20"/>
@@ -2107,24 +2195,24 @@
       <c r="D13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>77</v>
@@ -2132,16 +2220,47 @@
       <c r="D14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="K14" s="33" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="K14" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:181" ht="121.95" customHeight="1"/>
-    <row r="16" spans="1:181" ht="121.95" customHeight="1"/>
+    <row r="15" spans="1:181" ht="121.95" customHeight="1">
+      <c r="A15" s="1">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:181" ht="121.95" customHeight="1">
+      <c r="A16" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="17" ht="121.95" customHeight="1"/>
     <row r="18" ht="121.95" customHeight="1"/>
     <row r="19" ht="121.95" customHeight="1"/>
@@ -2384,6 +2503,7 @@
     <row r="256" ht="121.95" customHeight="1"/>
     <row r="257" ht="121.95" customHeight="1"/>
     <row r="258" ht="121.95" customHeight="1"/>
+    <row r="259" ht="121.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="H2:H3"/>

--- a/クリックポスト発送情報/20200619235506/英子日本发货表格6.19.xlsx
+++ b/クリックポスト発送情報/20200619235506/英子日本发货表格6.19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>序号</t>
   </si>
@@ -166,15 +166,6 @@
 発送について：翌日発送可能</t>
   </si>
   <si>
-    <t>2230064</t>
-  </si>
-  <si>
-    <t>神奈川県横浜市港北区下田町2-16-14B103</t>
-  </si>
-  <si>
-    <t>森戸 剛</t>
-  </si>
-  <si>
     <t>08012689579</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
 発送について：翌日発送可能</t>
   </si>
   <si>
-    <t>広島県広島市西区己斐本町2-11-28藤和己斐ホームズ201</t>
-  </si>
-  <si>
-    <t>渡部 優子</t>
-  </si>
-  <si>
     <t>0822739524</t>
   </si>
   <si>
@@ -342,6 +327,34 @@
   </si>
   <si>
     <t>628484318814</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>渡部 優子</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>広島県広島市西区己斐本町2-11-28藤和己斐ホームズ201</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>2230064</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>神奈川県横浜市港北区下田町2-16-14B103</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>森戸 剛</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>628485606416</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628485606405</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -577,6 +590,15 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,15 +612,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,8 +1561,8 @@
   <dimension ref="A1:FY259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1902,7 +1915,7 @@
       <c r="FY1" s="5"/>
     </row>
     <row r="2" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="12"/>
@@ -1915,24 +1928,24 @@
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="36">
         <v>2510861</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A3" s="33"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
         <v>18</v>
@@ -1943,12 +1956,12 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
@@ -1975,7 +1988,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
@@ -2002,7 +2015,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
@@ -2029,7 +2042,7 @@
         <v>36</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
@@ -2041,7 +2054,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>39</v>
@@ -2066,166 +2079,170 @@
         <v>44</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="28" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="I9" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F10" s="18">
         <v>7330812</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A13" s="31" t="s">
-        <v>71</v>
+      <c r="A13" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>76</v>
+      <c r="F13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="K14" s="28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
@@ -2234,31 +2251,31 @@
       </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="34" t="s">
+      <c r="K16" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" ht="121.95" customHeight="1"/>
